--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>399383.5293367549</v>
+        <v>450275.6437737592</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8547013.05951393</v>
+        <v>8636206.831769031</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8673692.685730742</v>
+        <v>8627903.240604855</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.396723986041229</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>129.3420634549344</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265844</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,16 +791,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="U3" t="n">
-        <v>179.6738228543547</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663197</v>
+        <v>129.3420634549344</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>21.41405905276474</v>
       </c>
       <c r="W4" t="n">
-        <v>52.21594625443417</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>146.9019614358876</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>187.5255871663197</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>101.2126968995411</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409151</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265844</v>
+        <v>19.00792621918458</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846323</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>150.483654767777</v>
       </c>
       <c r="T6" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>71.45481762433023</v>
       </c>
       <c r="Y6" t="n">
-        <v>58.53638321256214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.21594625443417</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.43383855780544</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>88.09081815943071</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>77.08171901666378</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>88.09081815943075</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="9">
@@ -1220,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.527456720693504</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V9" t="n">
-        <v>36.78756943016231</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>52.21594625443442</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>9.099193441182402</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>324.3985984863133</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>166.533183649868</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247633</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>102.0933563356328</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>81.77200357366304</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>338.0394898029504</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>11.26664236073926</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>144.6581552150296</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>194.3381448564505</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>189.2395865667829</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>281.8418017252673</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657088</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>128.2811303149647</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>238.1138357058005</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>59.80165496339997</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>16.32241046606893</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U21" t="n">
         <v>225.7871683969286</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>270.4873576255018</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>167.8501909484852</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>16.22539291913855</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>361.3693442271775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I24" t="n">
         <v>18.81721868247742</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.0880274467727</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>29.58779265247434</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>46.27182779876188</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>57.92556443677204</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>28.31233659742179</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>220.1132435568595</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>249.1524003704187</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>278.9298814078343</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.5271344483740416</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>119.8249959452326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>272.433384726717</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>310.8331573064577</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>125.0663096025708</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>143.4403630282111</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>350.4976661686014</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>181.7791917664216</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3398,7 +3398,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U36" t="n">
         <v>225.7871683969286</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>118.8376584678378</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>28.62349672839989</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.806897296252002</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3556,13 +3556,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>223.6073936510872</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3596,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.9994691657078</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
         <v>89.59687541851115</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>39.56196572536972</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>162.0606109397693</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>191.1326684784333</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3793,22 +3793,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>282.2968944532331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>46.5146927469353</v>
+        <v>54.51165059784285</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3985,16 +3985,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>177.606538748304</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>145.5346636008974</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>72.12508262678546</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>20.95866062610969</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400.3029543659122</v>
+        <v>439.0550691137144</v>
       </c>
       <c r="C2" t="n">
-        <v>210.8831693494277</v>
+        <v>290.7256538725946</v>
       </c>
       <c r="D2" t="n">
-        <v>21.46338433294318</v>
+        <v>290.7256538725946</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330557</v>
+        <v>142.3962386314749</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678483</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058922</v>
+        <v>53.10181779182994</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079183</v>
+        <v>141.3070323458394</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644752</v>
+        <v>271.1217663066254</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123824</v>
+        <v>407.6508467588559</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985575</v>
+        <v>523.2361246735302</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020256</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652787</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652787</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823968</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823968</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="U2" t="n">
-        <v>589.7227393823968</v>
+        <v>439.0550691137144</v>
       </c>
       <c r="V2" t="n">
-        <v>589.7227393823968</v>
+        <v>439.0550691137144</v>
       </c>
       <c r="W2" t="n">
-        <v>589.7227393823968</v>
+        <v>439.0550691137144</v>
       </c>
       <c r="X2" t="n">
-        <v>589.7227393823968</v>
+        <v>439.0550691137144</v>
       </c>
       <c r="Y2" t="n">
-        <v>400.3029543659122</v>
+        <v>439.0550691137144</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>189.7740686784161</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7740686784161</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="D3" t="n">
-        <v>189.7740686784161</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024176</v>
+        <v>12.36141687342335</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772645</v>
+        <v>111.9554248488218</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140238</v>
+        <v>247.5338027825022</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546594</v>
+        <v>392.9114626603237</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476339</v>
+        <v>511.1831359408224</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017052</v>
+        <v>586.7735145200476</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652787</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652787</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652787</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652787</v>
+        <v>439.0550691137144</v>
       </c>
       <c r="U3" t="n">
-        <v>568.6136387113851</v>
+        <v>290.7256538725946</v>
       </c>
       <c r="V3" t="n">
-        <v>379.1938536949006</v>
+        <v>142.3962386314749</v>
       </c>
       <c r="W3" t="n">
-        <v>189.7740686784161</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="X3" t="n">
-        <v>189.7740686784161</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="Y3" t="n">
-        <v>189.7740686784161</v>
+        <v>11.74768968709668</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230168</v>
+        <v>14.12595803543239</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170703</v>
+        <v>19.89179156510268</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396312</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828958</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828958</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828958</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828958</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828958</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828958</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828958</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828958</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709668</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.00204697330558</v>
+        <v>498.6626091182343</v>
       </c>
       <c r="C5" t="n">
-        <v>15.00204697330558</v>
+        <v>498.6626091182343</v>
       </c>
       <c r="D5" t="n">
-        <v>15.00204697330558</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="E5" t="n">
-        <v>15.00204697330558</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="F5" t="n">
-        <v>15.00204697330558</v>
+        <v>181.8096918109454</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>13.34259413586626</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058962</v>
+        <v>64.08111238184307</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079188</v>
+        <v>163.9284927306048</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644756</v>
+        <v>306.6973793432472</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123829</v>
+        <v>456.3902241803908</v>
       </c>
       <c r="O5" t="n">
-        <v>649.484525998558</v>
+        <v>584.4056715233288</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020258</v>
+        <v>659.1628932295215</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652789</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652789</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652789</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="T5" t="n">
-        <v>583.2614020227593</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="U5" t="n">
-        <v>393.8416170062748</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="V5" t="n">
-        <v>204.4218319897901</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="W5" t="n">
-        <v>15.00204697330558</v>
+        <v>498.6626091182343</v>
       </c>
       <c r="X5" t="n">
-        <v>15.00204697330558</v>
+        <v>498.6626091182343</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.00204697330558</v>
+        <v>498.6626091182343</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>238.9705777827891</v>
+        <v>442.9494316497707</v>
       </c>
       <c r="C6" t="n">
-        <v>238.9705777827891</v>
+        <v>442.9494316497707</v>
       </c>
       <c r="D6" t="n">
-        <v>90.03616812153786</v>
+        <v>294.0150219885194</v>
       </c>
       <c r="E6" t="n">
-        <v>90.03616812153786</v>
+        <v>134.7775669830639</v>
       </c>
       <c r="F6" t="n">
-        <v>90.03616812153786</v>
+        <v>134.7775669830639</v>
       </c>
       <c r="G6" t="n">
-        <v>90.03616812153786</v>
+        <v>134.7775669830639</v>
       </c>
       <c r="H6" t="n">
-        <v>90.03616812153786</v>
+        <v>32.54251960979009</v>
       </c>
       <c r="I6" t="n">
-        <v>30.53661367296056</v>
+        <v>32.54251960979009</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024196</v>
+        <v>59.33472114872539</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772647</v>
+        <v>167.4993528536689</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140241</v>
+        <v>313.079244429523</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546597</v>
+        <v>476.9208474646503</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476343</v>
+        <v>604.5841099877836</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017055</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652789</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="R6" t="n">
-        <v>676.9378076264271</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="S6" t="n">
-        <v>676.9378076264271</v>
+        <v>515.1260151086901</v>
       </c>
       <c r="T6" t="n">
-        <v>487.5180226099425</v>
+        <v>515.1260151086901</v>
       </c>
       <c r="U6" t="n">
-        <v>487.5180226099425</v>
+        <v>515.1260151086901</v>
       </c>
       <c r="V6" t="n">
-        <v>487.5180226099425</v>
+        <v>515.1260151086901</v>
       </c>
       <c r="W6" t="n">
-        <v>298.098237593458</v>
+        <v>515.1260151086901</v>
       </c>
       <c r="X6" t="n">
-        <v>298.098237593458</v>
+        <v>442.9494316497707</v>
       </c>
       <c r="Y6" t="n">
-        <v>238.9705777827891</v>
+        <v>442.9494316497707</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230169</v>
+        <v>20.64084305584014</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170704</v>
+        <v>31.59410626612414</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396313</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="O7" t="n">
-        <v>67.7454270282896</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="P7" t="n">
-        <v>67.7454270282896</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.7454270282896</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="R7" t="n">
-        <v>67.7454270282896</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="S7" t="n">
-        <v>67.7454270282896</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="T7" t="n">
-        <v>67.7454270282896</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="U7" t="n">
-        <v>67.7454270282896</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="V7" t="n">
-        <v>67.7454270282896</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="W7" t="n">
-        <v>67.7454270282896</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="X7" t="n">
-        <v>67.7454270282896</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.7454270282896</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>293.4024563932556</v>
+        <v>393.841617006275</v>
       </c>
       <c r="C8" t="n">
-        <v>103.982671376771</v>
+        <v>393.841617006275</v>
       </c>
       <c r="D8" t="n">
-        <v>103.982671376771</v>
+        <v>393.841617006275</v>
       </c>
       <c r="E8" t="n">
-        <v>103.982671376771</v>
+        <v>393.841617006275</v>
       </c>
       <c r="F8" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G8" t="n">
         <v>15.00204697330559</v>
@@ -4804,7 +4804,7 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
         <v>80.81213159058939</v>
@@ -4813,43 +4813,43 @@
         <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O8" t="n">
         <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020262</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R8" t="n">
-        <v>672.242026426225</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S8" t="n">
-        <v>672.242026426225</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="T8" t="n">
-        <v>672.242026426225</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="U8" t="n">
-        <v>672.242026426225</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="V8" t="n">
-        <v>672.242026426225</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="W8" t="n">
-        <v>672.242026426225</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="X8" t="n">
-        <v>482.8222414097403</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="Y8" t="n">
-        <v>293.4024563932556</v>
+        <v>393.841617006275</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>299.0757861239715</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="C9" t="n">
-        <v>299.0757861239715</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="D9" t="n">
-        <v>299.0757861239715</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="E9" t="n">
-        <v>299.0757861239715</v>
+        <v>22.60553861036973</v>
       </c>
       <c r="F9" t="n">
-        <v>152.5412281508565</v>
+        <v>22.60553861036973</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330559</v>
+        <v>22.60553861036973</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330559</v>
+        <v>22.60553861036973</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330559</v>
+        <v>22.60553861036973</v>
       </c>
       <c r="J9" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
         <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546601</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017063</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R9" t="n">
-        <v>676.9378076264279</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S9" t="n">
-        <v>525.6547321810242</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T9" t="n">
-        <v>336.2349471645395</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="U9" t="n">
-        <v>336.2349471645395</v>
+        <v>371.26277863231</v>
       </c>
       <c r="V9" t="n">
-        <v>299.0757861239715</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W9" t="n">
-        <v>299.0757861239715</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="X9" t="n">
-        <v>299.0757861239715</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="Y9" t="n">
-        <v>299.0757861239715</v>
+        <v>181.8429936158252</v>
       </c>
     </row>
     <row r="10">
@@ -4974,34 +4974,34 @@
         <v>42.98993985170716</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396333</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702828985</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702828985</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702828985</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X10" t="n">
         <v>15.00204697330559</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1964.273285499502</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C11" t="n">
-        <v>1595.31076855909</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>1237.04506995234</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>851.2568173540953</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883006</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V11" t="n">
-        <v>2741.012457539435</v>
+        <v>2741.012457539438</v>
       </c>
       <c r="W11" t="n">
-        <v>2741.012457539435</v>
+        <v>2388.243802269324</v>
       </c>
       <c r="X11" t="n">
-        <v>2741.012457539435</v>
+        <v>2014.778044008244</v>
       </c>
       <c r="Y11" t="n">
-        <v>2350.873125563623</v>
+        <v>2014.778044008244</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218339</v>
+        <v>631.4698357812249</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218339</v>
+        <v>631.4698357812249</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218339</v>
+        <v>631.4698357812249</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218339</v>
+        <v>483.5567421988318</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218339</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R13" t="n">
-        <v>838.2890224104441</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S13" t="n">
-        <v>838.2890224104441</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T13" t="n">
-        <v>838.2890224104441</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U13" t="n">
-        <v>549.1861555360877</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V13" t="n">
-        <v>294.5016673302007</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W13" t="n">
-        <v>294.5016673302007</v>
+        <v>631.4698357812249</v>
       </c>
       <c r="X13" t="n">
-        <v>66.51211643218339</v>
+        <v>631.4698357812249</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.51211643218339</v>
+        <v>631.4698357812249</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1636.624422581789</v>
+        <v>1942.56751757296</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>1573.605000632549</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>1573.605000632549</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794323</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450752</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W14" t="n">
-        <v>2413.363594621723</v>
+        <v>2719.306689612894</v>
       </c>
       <c r="X14" t="n">
-        <v>2413.363594621723</v>
+        <v>2719.306689612894</v>
       </c>
       <c r="Y14" t="n">
-        <v>2023.224262645911</v>
+        <v>2329.167357637082</v>
       </c>
     </row>
     <row r="15">
@@ -5348,40 +5348,40 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
         <v>2435.471302619336</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>507.434506214537</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C16" t="n">
-        <v>507.434506214537</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D16" t="n">
-        <v>507.434506214537</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E16" t="n">
-        <v>359.5214126321439</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
-        <v>212.6314651342335</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S16" t="n">
-        <v>729.201121645011</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T16" t="n">
-        <v>507.434506214537</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U16" t="n">
-        <v>507.434506214537</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="V16" t="n">
-        <v>507.434506214537</v>
+        <v>502.8192339670544</v>
       </c>
       <c r="W16" t="n">
-        <v>507.434506214537</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="X16" t="n">
-        <v>507.434506214537</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="Y16" t="n">
-        <v>507.434506214537</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1619.798686923957</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C17" t="n">
-        <v>1250.836169983545</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D17" t="n">
-        <v>892.5704713767946</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052369</v>
@@ -5548,19 +5548,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V17" t="n">
-        <v>2630.721789066532</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W17" t="n">
-        <v>2277.953133796418</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X17" t="n">
-        <v>1904.487375535338</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y17" t="n">
-        <v>1619.798686923957</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387292</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>680.3679798527295</v>
+        <v>480.6870701241381</v>
       </c>
       <c r="C19" t="n">
-        <v>511.4317969248226</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="D19" t="n">
-        <v>361.3151575124869</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E19" t="n">
-        <v>213.4020639300938</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962286</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181845</v>
+        <v>701.4796492676683</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181845</v>
+        <v>701.4796492676683</v>
       </c>
       <c r="U19" t="n">
-        <v>920.8870058181845</v>
+        <v>701.4796492676683</v>
       </c>
       <c r="V19" t="n">
-        <v>680.3679798527295</v>
+        <v>701.4796492676683</v>
       </c>
       <c r="W19" t="n">
-        <v>680.3679798527295</v>
+        <v>701.4796492676683</v>
       </c>
       <c r="X19" t="n">
-        <v>680.3679798527295</v>
+        <v>701.4796492676683</v>
       </c>
       <c r="Y19" t="n">
-        <v>680.3679798527295</v>
+        <v>480.6870701241381</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1689.318139675982</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C20" t="n">
-        <v>1320.35562273557</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.35562273557</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E20" t="n">
-        <v>934.5673701373257</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G20" t="n">
         <v>108.5090151927147</v>
@@ -5749,55 +5749,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810568</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2866.09759726723</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W20" t="n">
-        <v>2513.328941997116</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X20" t="n">
-        <v>2139.863183736036</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y20" t="n">
-        <v>1749.723851760224</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>234.2149530574645</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="C22" t="n">
-        <v>234.2149530574645</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="D22" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E22" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>729.201121645011</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>507.434506214537</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U22" t="n">
-        <v>507.434506214537</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V22" t="n">
-        <v>507.434506214537</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W22" t="n">
-        <v>234.2149530574645</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X22" t="n">
-        <v>234.2149530574645</v>
+        <v>751.3413583954725</v>
       </c>
       <c r="Y22" t="n">
-        <v>234.2149530574645</v>
+        <v>530.5487792519424</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1636.624422581789</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218343</v>
@@ -5989,19 +5989,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883008</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V23" t="n">
-        <v>2741.012457539437</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W23" t="n">
-        <v>2388.243802269323</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X23" t="n">
-        <v>2388.243802269323</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y23" t="n">
-        <v>2023.224262645911</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>848.0708164780106</v>
+        <v>410.9915598002984</v>
       </c>
       <c r="C25" t="n">
-        <v>679.1346335501037</v>
+        <v>410.9915598002984</v>
       </c>
       <c r="D25" t="n">
-        <v>529.0179941377679</v>
+        <v>410.9915598002984</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>410.9915598002984</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>264.101612302388</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>96.39877567710701</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>96.39877567710701</v>
       </c>
       <c r="I25" t="n">
         <v>66.51211643218343</v>
@@ -6180,19 +6180,19 @@
         <v>920.887005818185</v>
       </c>
       <c r="U25" t="n">
-        <v>920.887005818185</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V25" t="n">
-        <v>920.887005818185</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="W25" t="n">
-        <v>920.887005818185</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="X25" t="n">
-        <v>920.887005818185</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="Y25" t="n">
-        <v>920.887005818185</v>
+        <v>410.9915598002984</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>921.7704558796252</v>
+        <v>1664.678443125552</v>
       </c>
       <c r="C26" t="n">
-        <v>552.8079389392135</v>
+        <v>1664.678443125552</v>
       </c>
       <c r="D26" t="n">
-        <v>552.8079389392135</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E26" t="n">
-        <v>167.0196863409693</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F26" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180638</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.509627919559</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y26" t="n">
-        <v>1308.370295943747</v>
+        <v>2051.278283189674</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>409.7032203507503</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C28" t="n">
-        <v>409.7032203507503</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D28" t="n">
-        <v>409.7032203507503</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E28" t="n">
-        <v>409.7032203507503</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F28" t="n">
-        <v>262.81327285284</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G28" t="n">
-        <v>95.11043622755895</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
@@ -6414,22 +6414,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V28" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W28" t="n">
-        <v>409.7032203507503</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X28" t="n">
-        <v>409.7032203507503</v>
+        <v>698.5503961647914</v>
       </c>
       <c r="Y28" t="n">
-        <v>409.7032203507503</v>
+        <v>477.7578170212613</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2005.586939522201</v>
+        <v>1811.579746109088</v>
       </c>
       <c r="C29" t="n">
-        <v>1636.624422581789</v>
+        <v>1442.617229168676</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>1442.617229168676</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>1056.828976570432</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>645.8430717808246</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V29" t="n">
-        <v>2630.721789066532</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W29" t="n">
-        <v>2630.721789066532</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X29" t="n">
-        <v>2257.256030805452</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y29" t="n">
-        <v>2257.256030805452</v>
+        <v>2198.17958617321</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>363.5187033424295</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="C31" t="n">
-        <v>363.5187033424295</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D31" t="n">
-        <v>213.4020639300938</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E31" t="n">
-        <v>213.4020639300938</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R31" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S31" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T31" t="n">
-        <v>920.887005818185</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U31" t="n">
-        <v>920.887005818185</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V31" t="n">
-        <v>666.2025176122982</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W31" t="n">
-        <v>666.2025176122982</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="X31" t="n">
-        <v>666.2025176122982</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="Y31" t="n">
-        <v>545.1671681726692</v>
+        <v>609.2899331452389</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1127.748203495403</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="C32" t="n">
-        <v>852.5629663977095</v>
+        <v>1535.524858594925</v>
       </c>
       <c r="D32" t="n">
-        <v>494.2972677909589</v>
+        <v>1177.259159988174</v>
       </c>
       <c r="E32" t="n">
-        <v>108.5090151927147</v>
+        <v>791.4709073899301</v>
       </c>
       <c r="F32" t="n">
-        <v>108.5090151927147</v>
+        <v>380.4850026003225</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V32" t="n">
         <v>2630.721789066531</v>
       </c>
       <c r="W32" t="n">
-        <v>2277.953133796417</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X32" t="n">
-        <v>1904.487375535337</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y32" t="n">
-        <v>1514.348043559525</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>381.1049005553748</v>
+        <v>775.9977502341333</v>
       </c>
       <c r="C34" t="n">
-        <v>381.1049005553748</v>
+        <v>607.0615673062264</v>
       </c>
       <c r="D34" t="n">
-        <v>381.1049005553748</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E34" t="n">
-        <v>381.1049005553748</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
         <v>332.3555681596505</v>
@@ -6885,25 +6885,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>381.1049005553748</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V34" t="n">
-        <v>381.1049005553748</v>
+        <v>775.9977502341333</v>
       </c>
       <c r="W34" t="n">
-        <v>381.1049005553748</v>
+        <v>775.9977502341333</v>
       </c>
       <c r="X34" t="n">
-        <v>381.1049005553748</v>
+        <v>775.9977502341333</v>
       </c>
       <c r="Y34" t="n">
-        <v>381.1049005553748</v>
+        <v>775.9977502341333</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1175.30093260579</v>
+        <v>1845.410930903096</v>
       </c>
       <c r="C35" t="n">
-        <v>806.3384156653785</v>
+        <v>1476.448413962684</v>
       </c>
       <c r="D35" t="n">
-        <v>452.3003690304276</v>
+        <v>1118.182715355933</v>
       </c>
       <c r="E35" t="n">
-        <v>66.51211643218343</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218343</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>2678.274518176918</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W35" t="n">
-        <v>2325.505862906803</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X35" t="n">
-        <v>1952.040104645724</v>
+        <v>2235.550262878907</v>
       </c>
       <c r="Y35" t="n">
-        <v>1561.900772669912</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>511.4317969248226</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C37" t="n">
-        <v>511.4317969248226</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D37" t="n">
-        <v>361.3151575124869</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U37" t="n">
-        <v>800.8489669617832</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V37" t="n">
-        <v>800.8489669617832</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W37" t="n">
-        <v>511.4317969248226</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="X37" t="n">
-        <v>511.4317969248226</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="Y37" t="n">
-        <v>511.4317969248226</v>
+        <v>381.1049005553748</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1678.62132134232</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C38" t="n">
-        <v>1678.62132134232</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D38" t="n">
-        <v>1320.35562273557</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F38" t="n">
         <v>523.5814653477182</v>
@@ -7171,31 +7171,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2630.721789066532</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W38" t="n">
-        <v>2277.953133796418</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X38" t="n">
-        <v>1904.487375535338</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y38" t="n">
-        <v>1678.62132134232</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>363.5187033424295</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C40" t="n">
-        <v>363.5187033424295</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D40" t="n">
         <v>213.4020639300938</v>
@@ -7320,19 +7320,19 @@
         <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K40" t="n">
         <v>176.6457242372933</v>
@@ -7341,43 +7341,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>920.887005818185</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V40" t="n">
-        <v>880.9254242774075</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W40" t="n">
-        <v>591.5082542404468</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="X40" t="n">
-        <v>363.5187033424295</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="Y40" t="n">
-        <v>363.5187033424295</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2303.170539913434</v>
+        <v>1311.909787855439</v>
       </c>
       <c r="C41" t="n">
-        <v>1934.208022973022</v>
+        <v>942.9472709150275</v>
       </c>
       <c r="D41" t="n">
-        <v>1575.942324366272</v>
+        <v>749.8839694216605</v>
       </c>
       <c r="E41" t="n">
-        <v>1190.154071768027</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F41" t="n">
-        <v>779.1681669784198</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G41" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U41" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V41" t="n">
-        <v>2961.784676410103</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W41" t="n">
-        <v>2961.784676410103</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X41" t="n">
-        <v>2588.318918149023</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y41" t="n">
-        <v>2303.170539913434</v>
+        <v>1698.509627919561</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F42" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
         <v>1685.951113992584</v>
@@ -7511,31 +7511,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>450.1356741135888</v>
+        <v>121.5743897633378</v>
       </c>
       <c r="C43" t="n">
-        <v>281.1994911856819</v>
+        <v>121.5743897633378</v>
       </c>
       <c r="D43" t="n">
-        <v>281.1994911856819</v>
+        <v>121.5743897633378</v>
       </c>
       <c r="E43" t="n">
-        <v>281.1994911856819</v>
+        <v>121.5743897633378</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962289</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372933</v>
@@ -7608,13 +7608,13 @@
         <v>631.7841389438286</v>
       </c>
       <c r="W43" t="n">
-        <v>631.7841389438286</v>
+        <v>342.366968906868</v>
       </c>
       <c r="X43" t="n">
-        <v>631.7841389438286</v>
+        <v>342.366968906868</v>
       </c>
       <c r="Y43" t="n">
-        <v>631.7841389438286</v>
+        <v>121.5743897633378</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1698.50962791956</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C44" t="n">
-        <v>1329.547110979148</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D44" t="n">
-        <v>971.2814123723979</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E44" t="n">
-        <v>585.4931597741536</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>585.4931597741536</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.97538618064</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.50962791956</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y44" t="n">
-        <v>1698.50962791956</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.6824807009811</v>
+        <v>289.482374659454</v>
       </c>
       <c r="C46" t="n">
-        <v>87.6824807009811</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D46" t="n">
-        <v>87.6824807009811</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
-        <v>87.6824807009811</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>87.6824807009811</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
         <v>66.51211643218343</v>
@@ -7836,22 +7836,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U46" t="n">
-        <v>631.7841389438286</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V46" t="n">
-        <v>377.0996507379417</v>
+        <v>699.120390387711</v>
       </c>
       <c r="W46" t="n">
-        <v>87.6824807009811</v>
+        <v>699.120390387711</v>
       </c>
       <c r="X46" t="n">
-        <v>87.6824807009811</v>
+        <v>471.1308394896937</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.6824807009811</v>
+        <v>471.1308394896937</v>
       </c>
     </row>
   </sheetData>
@@ -22549,28 +22549,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046879</v>
+        <v>218.426770682299</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543633</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>375.5336460862205</v>
+        <v>235.0842489835532</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>277.533982286777</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666384</v>
+        <v>86.27197698880639</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>104.3348437827357</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897339</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22634,22 +22634,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409151</v>
+        <v>61.59970664354543</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846323</v>
+        <v>77.29308816345809</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>48.87899782081604</v>
       </c>
       <c r="U3" t="n">
-        <v>46.18994555573627</v>
+        <v>79.02279728521572</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831056</v>
+        <v>85.95446606071673</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459994</v>
+        <v>122.3529197059852</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825421</v>
+        <v>61.70981873818782</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402857</v>
+        <v>21.7289579877603</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22743,31 +22743,31 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7.935701265474393</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709392</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159729</v>
+        <v>74.1813952927055</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>230.7235842710633</v>
       </c>
       <c r="W4" t="n">
-        <v>234.3070520821568</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22789,22 +22789,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>187.9006149223546</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>259.9740843058238</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>246.3871906880662</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>317.6289855973039</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199748</v>
+        <v>128.2387758071391</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666384</v>
+        <v>81.59093052713877</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>160.4115946525719</v>
       </c>
       <c r="T5" t="n">
-        <v>48.27134388011237</v>
+        <v>213.75811620057</v>
       </c>
       <c r="U5" t="n">
-        <v>63.6436733987106</v>
+        <v>251.1750032975372</v>
       </c>
       <c r="V5" t="n">
-        <v>140.2266713038152</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>161.7153815510933</v>
+        <v>182.4585420190847</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22871,19 +22871,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2021972754605</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>60.22693649632168</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>74.8175551438276</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>7.884010625681526</v>
+        <v>195.5644086209515</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8662952462544</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>64.16939599459988</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>134.3181675791473</v>
       </c>
       <c r="Y6" t="n">
-        <v>147.1463125647422</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>127.6160339275031</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0341351039889</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>153.7199572267894</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>126.6755586201103</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825421</v>
+        <v>59.34653264837752</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402857</v>
+        <v>17.8453529694016</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22980,25 +22980,25 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>3.210952374594825</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709392</v>
+        <v>22.00204076308474</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159729</v>
+        <v>34.94850463598755</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>134.2701942625523</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>207.3414122568022</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>223.8572548864558</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2668378517016</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23023,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>318.7852275822808</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G8" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>70.68499503062235</v>
       </c>
       <c r="T8" t="n">
         <v>213.4438810562068</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>182.2055135121492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>198.7123514897337</v>
@@ -23108,13 +23108,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
         <v>100.8417573507397</v>
@@ -23123,7 +23123,7 @@
         <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>7.851764311964889</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>7.884010625681412</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V9" t="n">
-        <v>196.013017719263</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23235,7 +23235,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390158</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23244,7 +23244,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>173.4937091346027</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>373.6346482222982</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>82.47744725539809</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>43.32769168729847</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7.160149096384302</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23472,16 +23472,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>43.89088026931137</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>337.9743263566738</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>21.36765304399859</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>57.7994984673775</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>192.6907835054789</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>104.3961369307863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>61.48789501647715</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -23949,7 +23949,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>14.02380761802752</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>322.9321867000806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>348.9504813049386</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>16.03564071108923</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>57.85946444055193</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>366.508448744342</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>24.86859442887607</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>107.7439527351646</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>66.76462775736374</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>308.4112138219211</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>348.9504813049394</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>116.442678316899</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>5.596411832177637</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>133.5814412930619</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>131.9918442456191</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>166.7196866502538</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>98.75965740686216</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>92.83950704429054</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>100.0885683469958</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>161.1455286030421</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>108.6972802956169</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>4.185375452081587</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>200.1511783058402</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25365,16 +25365,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>167.3741797377751</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>257.8995016081911</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>379.9269443672286</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>162.6305450049664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25605,16 +25605,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>212.5756775984583</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>124.4623873968217</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>163.5503731422496</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>103.9410442028205</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>98.90635527599594</v>
+        <v>90.9093974250884</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>233.3151869051494</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>240.7032750551562</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12173847184238</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>145.0671476329185</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26076,19 +26076,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433263.0758337674</v>
+        <v>402256.5418769752</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433263.0758337675</v>
+        <v>417888.8482179075</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855506.5411587487</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149975.680096304</v>
+        <v>139242.6491112606</v>
       </c>
       <c r="C2" t="n">
-        <v>149975.680096304</v>
+        <v>144653.8320754294</v>
       </c>
       <c r="D2" t="n">
         <v>149975.680096304</v>
       </c>
       <c r="E2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318748</v>
       </c>
       <c r="F2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318747</v>
       </c>
       <c r="G2" t="n">
         <v>296136.8796318747</v>
       </c>
       <c r="H2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="I2" t="n">
+        <v>296136.8796318747</v>
+      </c>
+      <c r="J2" t="n">
+        <v>296136.8796318744</v>
+      </c>
+      <c r="K2" t="n">
         <v>296136.8796318745</v>
       </c>
-      <c r="I2" t="n">
-        <v>296136.8796318745</v>
-      </c>
-      <c r="J2" t="n">
-        <v>296136.8796318743</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="M2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="N2" t="n">
         <v>296136.8796318744</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>296136.8796318744</v>
       </c>
-      <c r="M2" t="n">
-        <v>296136.8796318744</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>296136.8796318746</v>
-      </c>
-      <c r="O2" t="n">
-        <v>296136.8796318745</v>
-      </c>
-      <c r="P2" t="n">
-        <v>296136.8796318745</v>
       </c>
     </row>
     <row r="3">
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208451</v>
+        <v>542655.4349751304</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23320.45473340642</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>21735.84085679084</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336674</v>
+        <v>627134.643633668</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854444</v>
+        <v>38421.40650613402</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5130.967102136572</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5249.90722600444</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678774</v>
+        <v>160456.4418678775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723338</v>
+        <v>107.1921479602628</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723338</v>
+        <v>122.1898065383436</v>
       </c>
       <c r="D4" t="n">
         <v>137.800118072334</v>
       </c>
       <c r="E4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="F4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="G4" t="n">
         <v>584.6469890061232</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="L4" t="n">
         <v>584.6469890061231</v>
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161355</v>
+        <v>53719.11977902089</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161356</v>
+        <v>55335.34872138573</v>
       </c>
       <c r="D5" t="n">
         <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26493,22 +26493,22 @@
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="K5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="K5" t="n">
-        <v>74306.3405613933</v>
-      </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-510698.8849732616</v>
+        <v>-458518.1319426713</v>
       </c>
       <c r="C6" t="n">
-        <v>80658.01754758345</v>
+        <v>64626.86678985727</v>
       </c>
       <c r="D6" t="n">
-        <v>80658.01754758327</v>
+        <v>69896.83250792378</v>
       </c>
       <c r="E6" t="n">
-        <v>-409962.7469303619</v>
+        <v>-406296.1510900095</v>
       </c>
       <c r="F6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436583</v>
       </c>
       <c r="G6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436583</v>
       </c>
       <c r="H6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436583</v>
       </c>
       <c r="I6" t="n">
-        <v>217171.8967033053</v>
+        <v>220838.4925436583</v>
       </c>
       <c r="J6" t="n">
-        <v>168106.9519747609</v>
+        <v>182417.086037524</v>
       </c>
       <c r="K6" t="n">
-        <v>217171.8967033054</v>
+        <v>215707.5254415215</v>
       </c>
       <c r="L6" t="n">
-        <v>217171.8967033054</v>
+        <v>215588.5853176537</v>
       </c>
       <c r="M6" t="n">
-        <v>56715.45483542798</v>
+        <v>60382.0506757807</v>
       </c>
       <c r="N6" t="n">
-        <v>217171.8967033056</v>
+        <v>220838.492543658</v>
       </c>
       <c r="O6" t="n">
-        <v>217171.8967033053</v>
+        <v>220838.492543658</v>
       </c>
       <c r="P6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436582</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129043</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129043</v>
+        <v>530.6136320241911</v>
       </c>
       <c r="D3" t="n">
         <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663197</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="K4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129043</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.53676886697031</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>17.85630888871344</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803935</v>
+        <v>541.306759680394</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.93630560961981</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20.74316046799152</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359726</v>
+        <v>643.8758682359733</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663193</v>
+        <v>146.8461210887084</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961958</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799152</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359728</v>
+        <v>643.8758682359733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961981</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799152</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359726</v>
+        <v>643.8758682359733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043116</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622678</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244293</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924575</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590849</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621733</v>
+        <v>138.461365425194</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>278.1878331720418</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292672</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628871</v>
+        <v>210.3283251711234</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>140.5989153332807</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550072</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820367</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390159</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445815</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620012</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J4" t="n">
-        <v>69.9254218111419</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784856</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647908</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181393</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0539478630406136</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077001</v>
+        <v>2.133120128740465</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954484</v>
+        <v>21.84581651846329</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043116</v>
+        <v>82.23711376326686</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>181.0459045266862</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528638</v>
+        <v>271.3408795762702</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672891</v>
+        <v>336.6223547162112</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470272</v>
+        <v>374.5572298056995</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470022</v>
+        <v>380.6179573714834</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622678</v>
+        <v>359.4067440913203</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244293</v>
+        <v>306.7453409130401</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151091</v>
+        <v>230.3529763025221</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>133.9946072869934</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619221</v>
+        <v>48.6084749336734</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924575</v>
+        <v>9.337733363561391</v>
       </c>
       <c r="U5" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1706496102992372</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.141319887750147</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575675</v>
+        <v>11.02274733695537</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590849</v>
+        <v>39.29544350367831</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>107.8297004474821</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621736</v>
+        <v>184.2981329267419</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>247.8115835222414</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975328</v>
+        <v>289.1844294531841</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829653</v>
+        <v>296.8382808056841</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292672</v>
+        <v>271.5490348718519</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628871</v>
+        <v>197.1517779249664</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936714</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550072</v>
+        <v>70.86194882013635</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288819</v>
+        <v>21.19951633606083</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820367</v>
+        <v>4.600320073870108</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390159</v>
+        <v>0.07508683472040444</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445815</v>
+        <v>0.9568442544698528</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620012</v>
+        <v>8.507215280650152</v>
       </c>
       <c r="I7" t="n">
-        <v>29.7432551563916</v>
+        <v>28.77491630714794</v>
       </c>
       <c r="J7" t="n">
-        <v>69.9254218111419</v>
+        <v>67.64888879101859</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765068</v>
+        <v>111.1679052011338</v>
       </c>
       <c r="L7" t="n">
-        <v>147.043892027699</v>
+        <v>142.2566448872725</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682165</v>
+        <v>149.9896861802152</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604414</v>
+        <v>146.4232666862822</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>135.245586077248</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820537</v>
+        <v>115.7259632860629</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784856</v>
+        <v>80.12265843565285</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647908</v>
+        <v>43.02319711461719</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147602</v>
+        <v>16.67518578017006</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181393</v>
+        <v>4.088334541825733</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0539478630406136</v>
+        <v>0.05219150478926476</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781703</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054954005</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33043,10 +33043,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33280,10 +33280,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867967</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788321</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915973</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065964</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781433</v>
+        <v>0.6199264508350188</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755145</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855685</v>
+        <v>76.35391775679318</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.6094444076499</v>
+        <v>0.6171412472592124</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646072</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061146</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520818</v>
+        <v>13.6224856581357</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400467</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538867967</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788321</v>
+        <v>51.25102853128965</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973019</v>
+        <v>100.855939746224</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197545</v>
+        <v>144.2109965784267</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504113</v>
+        <v>151.2048937748925</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405811</v>
+        <v>129.3085326696336</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915973</v>
+        <v>75.51234515777054</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065964</v>
+        <v>8.047286428072596</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781461</v>
+        <v>46.45669395238295</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>109.2572037423672</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755145</v>
+        <v>147.0503955311658</v>
       </c>
       <c r="N6" t="n">
-        <v>175.485825899632</v>
+        <v>165.4965687223508</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848227</v>
+        <v>128.9527904274074</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855685</v>
+        <v>63.1773705106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.6094444076499</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646072</v>
+        <v>7.371968606034216</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061146</v>
+        <v>11.0639022326101</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520818</v>
+        <v>18.73772222104901</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400467</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037208</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222388</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687142</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O22" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
